--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aholmes/Developer/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E6C3F-F862-764C-8C46-0611EEFEAFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E32D33-9EB1-1145-982B-7F84670328FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="403">
   <si>
     <t>First Name</t>
   </si>
@@ -1220,6 +1220,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CU2" sqref="CU2"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1677,9 +1686,14 @@
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="28.83203125" customWidth="1"/>
+    <col min="99" max="99" width="18.83203125" customWidth="1"/>
+    <col min="100" max="100" width="19.1640625" customWidth="1"/>
+    <col min="101" max="101" width="11.5" customWidth="1"/>
+    <col min="102" max="102" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1977,8 +1991,17 @@
       <c r="CU1" t="s">
         <v>399</v>
       </c>
+      <c r="CV1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>402</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2262,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2549,7 +2572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2830,7 +2853,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3066,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3320,7 +3343,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3580,7 +3603,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3840,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4119,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4400,7 +4423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4657,7 +4680,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E32D33-9EB1-1145-982B-7F84670328FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3842B9D5-68B6-5340-A8C3-EF76D9CAD12E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:CX12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="CX1" sqref="CX1"/>
+      <selection activeCell="CU9" sqref="CU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1685,12 +1685,12 @@
     <col min="94" max="94" width="16" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="28.83203125" customWidth="1"/>
-    <col min="99" max="99" width="18.83203125" customWidth="1"/>
-    <col min="100" max="100" width="19.1640625" customWidth="1"/>
-    <col min="101" max="101" width="11.5" customWidth="1"/>
-    <col min="102" max="102" width="25.6640625" customWidth="1"/>
+    <col min="97" max="97" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.15">
@@ -1992,10 +1992,10 @@
         <v>399</v>
       </c>
       <c r="CV1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CW1" t="s">
         <v>400</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>401</v>
       </c>
       <c r="CX1" t="s">
         <v>402</v>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3842B9D5-68B6-5340-A8C3-EF76D9CAD12E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAEA8-5357-5849-BF9E-F3FCCB080DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="426">
   <si>
     <t>First Name</t>
   </si>
@@ -1229,6 +1229,75 @@
   </si>
   <si>
     <t>Race Refused to Answer</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Notes</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Notes</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Moderna COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>notes 1</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>notes 2</t>
+  </si>
+  <si>
+    <t>Pfizer-BioNTech COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>Janssen (J&amp;J) COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
   </si>
 </sst>
 </file>
@@ -1581,11 +1650,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
-    </sheetView>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1691,9 +1758,19 @@
     <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="31" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="31" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2000,8 +2077,38 @@
       <c r="CX1" t="s">
         <v>402</v>
       </c>
+      <c r="CY1" t="s">
+        <v>403</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>404</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>406</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>407</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>408</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>409</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>411</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>412</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2284,8 +2391,38 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CY2" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>414</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>414</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="DG2">
+        <v>2</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>418</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2571,8 +2708,32 @@
       <c r="CS3">
         <v>4</v>
       </c>
+      <c r="CY3" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>419</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>419</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="DG3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2852,8 +3013,32 @@
       <c r="CQ4" t="s">
         <v>324</v>
       </c>
+      <c r="CY4" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>388</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>388</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="DG4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3088,8 +3273,20 @@
       <c r="CS5">
         <v>4</v>
       </c>
+      <c r="CY5" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>414</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3342,8 +3539,20 @@
       <c r="CR6" t="s">
         <v>394</v>
       </c>
+      <c r="CY6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>424</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3602,8 +3811,20 @@
       <c r="CR7" t="s">
         <v>395</v>
       </c>
+      <c r="CY7" t="s">
+        <v>413</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>388</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3863,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4142,7 +4363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4423,7 +4644,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4680,7 +4901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAEA8-5357-5849-BF9E-F3FCCB080DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838BD3E-B8F8-274D-9810-CD43E807ACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="430">
   <si>
     <t>First Name</t>
   </si>
@@ -1298,6 +1298,18 @@
   </si>
   <si>
     <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1768,9 +1780,11 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,8 +2121,14 @@
       <c r="DH1" t="s">
         <v>412</v>
       </c>
+      <c r="DI1" t="s">
+        <v>426</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2421,8 +2441,11 @@
       <c r="DH2" t="s">
         <v>418</v>
       </c>
+      <c r="DJ2" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2732,8 +2755,11 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DI3" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3038,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3286,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3552,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3824,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4084,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4363,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4644,7 +4670,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4901,7 +4927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838BD3E-B8F8-274D-9810-CD43E807ACEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43D400-4580-F24A-8757-DCD3412D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2441,9 +2441,6 @@
       <c r="DH2" t="s">
         <v>418</v>
       </c>
-      <c r="DJ2" t="s">
-        <v>429</v>
-      </c>
     </row>
     <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -2757,6 +2754,9 @@
       </c>
       <c r="DI3" t="s">
         <v>428</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:114" x14ac:dyDescent="0.15">

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAEA8-5357-5849-BF9E-F3FCCB080DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43D400-4580-F24A-8757-DCD3412D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="430">
   <si>
     <t>First Name</t>
   </si>
@@ -1298,6 +1298,18 @@
   </si>
   <si>
     <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1768,9 +1780,11 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,8 +2121,14 @@
       <c r="DH1" t="s">
         <v>412</v>
       </c>
+      <c r="DI1" t="s">
+        <v>426</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>427</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2422,7 +2442,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2732,8 +2752,14 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DI3" t="s">
+        <v>428</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3038,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3286,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3552,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3824,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4084,7 +4110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4363,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4644,7 +4670,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4901,7 +4927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43D400-4580-F24A-8757-DCD3412D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9FAEA8-5357-5849-BF9E-F3FCCB080DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="426">
   <si>
     <t>First Name</t>
   </si>
@@ -1298,18 +1298,6 @@
   </si>
   <si>
     <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>Follow-Up Reason</t>
-  </si>
-  <si>
-    <t>Follow-Up Note</t>
-  </si>
-  <si>
-    <t>Deceased</t>
-  </si>
-  <si>
-    <t>note</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1780,11 +1768,9 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,14 +2107,8 @@
       <c r="DH1" t="s">
         <v>412</v>
       </c>
-      <c r="DI1" t="s">
-        <v>426</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>427</v>
-      </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2442,7 +2422,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2752,14 +2732,8 @@
       <c r="DG3">
         <v>2</v>
       </c>
-      <c r="DI3" t="s">
-        <v>428</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>429</v>
-      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3064,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3578,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3850,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4110,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4389,7 +4363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4670,7 +4644,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4927,7 +4901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-IW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43D400-4580-F24A-8757-DCD3412D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6844CA27-6E68-2F4F-AA4B-42AD42475879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
